--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H2">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I2">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J2">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>55.9502904810569</v>
+        <v>33.838427097442</v>
       </c>
       <c r="R2">
-        <v>503.552614329512</v>
+        <v>304.545843876978</v>
       </c>
       <c r="S2">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="T2">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>18.812855</v>
       </c>
       <c r="I3">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J3">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>697.35901034239</v>
       </c>
       <c r="S3">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="T3">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>9.720485</v>
       </c>
       <c r="I4">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J4">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>360.32105704573</v>
       </c>
       <c r="S4">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="T4">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
     </row>
   </sheetData>
